--- a/medicine/Enfance/Les_Mystères_romains_(série_littéraire)/Les_Mystères_romains_(série_littéraire).xlsx
+++ b/medicine/Enfance/Les_Mystères_romains_(série_littéraire)/Les_Mystères_romains_(série_littéraire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Myst%C3%A8res_romains_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Les_Mystères_romains_(série_littéraire)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Mystères romains est une série littéraire écrite par Caroline Lawrence et éditée par Milan Poche, relatant l'histoire de quatre amis vivant en Italie entre 79 et 81 apr. J.-C.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Myst%C3%A8res_romains_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Les_Mystères_romains_(série_littéraire)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,25 +524,165 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans ce groupe de quatre amis, il y a Flavia Gemina, la fille d'un armateur romain, Jonathan Ben Mordecaï un jeune chrétien, Nubia, une esclave africaine affranchie, et Lupus, un jeune mendiant d'origine grecque muet. 
-Personnages principaux
-Flavia Gemina, jeune fille de la classe équestre d'Ostie, est très intelligente, avec un esprit très vif qui l'aide beaucoup pour résoudre les mystères. Elle se révèle très cultivée, lisant assidûment l’Énéide, mais aussi têtue et autoritaire. Son père, le capitaine Marcus Flavius Geminus, est capitaine d'un navire de commerce (sa mère est morte lorsqu'elle a accouché de deux jumeaux). Elle a un chien (Scuto), ainsi qu'une grande maison de ville. Son oncle paternel, Gaïus, est un fermier de Stabies qui perdra tous ses biens dans la catastrophe du Vésuve et qui épousera la sœur de Jonathan, Miriam. Du côté de sa mère, sa tante Cynthia et son oncle Aulus (un sénateur) vivent dans une villa aisée de Rome.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Les_Mystères_romains_(série_littéraire)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Myst%C3%A8res_romains_(s%C3%A9rie_litt%C3%A9raire)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Flavia Gemina, jeune fille de la classe équestre d'Ostie, est très intelligente, avec un esprit très vif qui l'aide beaucoup pour résoudre les mystères. Elle se révèle très cultivée, lisant assidûment l’Énéide, mais aussi têtue et autoritaire. Son père, le capitaine Marcus Flavius Geminus, est capitaine d'un navire de commerce (sa mère est morte lorsqu'elle a accouché de deux jumeaux). Elle a un chien (Scuto), ainsi qu'une grande maison de ville. Son oncle paternel, Gaïus, est un fermier de Stabies qui perdra tous ses biens dans la catastrophe du Vésuve et qui épousera la sœur de Jonathan, Miriam. Du côté de sa mère, sa tante Cynthia et son oncle Aulus (un sénateur) vivent dans une villa aisée de Rome.
 Jonathan est le fils d'un médecin d'Ostie, Mordecaï ben Ezra. Il est le voisin de Flavia. Sa famille vient de Jérusalem et est convertie au christianisme (qui était à l'époque une branche du judaïsme) ; la mère de Jonathan est déclarée morte lors du siège de Jérusalem (70) (ce qui se révélera faux). Sa sœur, Miriam, attire les regards de tous les hommes à cause de sa très grande beauté, mais elle n'aime pas être l'objet de toutes les attentions. Jonathan souffre d'asthme ; il aime faire des blagues mais a un esprit critique très fort, ce qui le rend souvent pessimiste. Quant à son chien, il s'appelle Tigris.
 Nubia est l'esclave africaine que Flavia a acheté dans le premier tome, émue par la détresse de cette jeune fille. Bien qu'elle ne maîtrise pas bien le latin ni les codes de la société romaine, elle se révèle d'une très grande sagesse et d'un grand calme ; elle comprend très facilement la psychologie des gens. Elle aime bien jouer de la flûte et s'occuper des animaux (dont son chien Nipur). Elle est affranchie dans « Les Pirates de Pompéi ». Alors qu'elle croit toute sa famille tuée réduite à l'esclavage, elle parviendra à retrouver son frère aîné Taharqo, gladiateur à l'amphithéâtre Flavien.
-Lupus est initialement un enfant-mendiant d'Ostie, recueilli par la famille de Jonathan. Il a la langue coupée et ne peut pas parler ; il se sert donc d'une tablette de cire et d'une craie pour écrire et communiquer. Sa petite taille lui permet de passer inaperçu et donc de mieux enquêter. Les romans nous apprennent qu'il est Grec (originaire de l'île de Symi) et qu'il est indirectement lié à la vie de Venalicius, un marchand d'esclaves.
-Personnages secondaires
-Aristo est le jeune et beau Grec qui assure l'éducation de Flavia (et par là, celle de ses amis). Il vient de Corinthe. En raison des absences répétées du père de Flavia, il fait office de tuteur des enfants.
+Lupus est initialement un enfant-mendiant d'Ostie, recueilli par la famille de Jonathan. Il a la langue coupée et ne peut pas parler ; il se sert donc d'une tablette de cire et d'une craie pour écrire et communiquer. Sa petite taille lui permet de passer inaperçu et donc de mieux enquêter. Les romans nous apprennent qu'il est Grec (originaire de l'île de Symi) et qu'il est indirectement lié à la vie de Venalicius, un marchand d'esclaves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Les_Mystères_romains_(série_littéraire)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Myst%C3%A8res_romains_(s%C3%A9rie_litt%C3%A9raire)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnages secondaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Aristo est le jeune et beau Grec qui assure l'éducation de Flavia (et par là, celle de ses amis). Il vient de Corinthe. En raison des absences répétées du père de Flavia, il fait office de tuteur des enfants.
 Marcus Artorius Bato : magistrat d'Ostie pendant l'année 79, il est tantôt l'allié des amis de Flavia (pour aider à retrouver les enfants enlevés ou pour arrêter le tueur de chiens), tantôt leur adversaire (dans le procès d'Hephzibah ou lors de l'arrestation de Mordecaï).
 Mordecaï ben Ezra, le père de Jonathan, qui est souvent la seule autorité paternelle des quatre enfants quand le père de Flavia est parti en voyage ; son métier de médecin lui confère une grande sagesse et une culture très large.
 Alma, l'esclave de la famille de Flavia ; après avoir en avoir été la nourrice, elle est la cuisinière de Flavia. Assez corpulente et âgée, elle informe souvent les enfants des rumeurs qui circulent à Ostie.
 Pulchra, la fille de Publius Pollius Felix, un très riche Romain qui habite dans la villa Limona à Sorrente (sur la baie de Naples). Très gâtée, Pulchra est aussi autoritaire et très exigeante à l'égard de ses amis et esclaves, recherchant toujours la plus grande richesse ; quant à son père, il s'entoure de « clients », d'où son surnom « le Patron ». Personnage énigmatique, il est admiré de quasiment toutes les personnes qu'il rencontre et est « la moitié des femmes de Campanie sont amoureuses de lui ». Flavia en est secrètement amoureuse, jusqu'au tome 11.
-Miriam, est la sœur de Jonathan et la fille de Mordecaï. Elle épouse Gaius, l'oncle de Flavia, dans le tome 6.
-Personnages historiques
-L'auteur fait référence aussi à des personnages célèbres de l'époque comme l'empereur Titus, Pline l'Ancien et son neveu Pline le Jeune, Caius Valerius Flaccus (un jeune patricien très riche et distingué, qui est en apparence condescendant voire snob, mais qui se révèle être un étudiant en rhétorique très cultivé et généreux), Flavius Josèphe (historien juif, devenu romain), Suétone (qui est appelé par son cognomen Tranquillus, et déjà porté sur les ragots), etc.
-Faits historiques
-L'auteur de cette série reprend beaucoup d'événements de l'époque comme l'éruption du Vésuve en août 79, l'incendie de Rome pendant l'hiver 90, ou encore l'inauguration du Colisée (amphithéâtre Flavien). Le récit, ses péripéties, descriptions et dialogues sont souvent des occasions pour Caroline Lawrence de faire quelques remarques sur la civilisation romaine : très variées, celles-ci concernent les modes vestimentaires, la gastronomie, l'ambiance des rues, les expressions en vogue, les rapports codifiés au sein de la société, les mythes gréco-romains...
+Miriam, est la sœur de Jonathan et la fille de Mordecaï. Elle épouse Gaius, l'oncle de Flavia, dans le tome 6.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Les_Mystères_romains_(série_littéraire)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Myst%C3%A8res_romains_(s%C3%A9rie_litt%C3%A9raire)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Personnages historiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'auteur fait référence aussi à des personnages célèbres de l'époque comme l'empereur Titus, Pline l'Ancien et son neveu Pline le Jeune, Caius Valerius Flaccus (un jeune patricien très riche et distingué, qui est en apparence condescendant voire snob, mais qui se révèle être un étudiant en rhétorique très cultivé et généreux), Flavius Josèphe (historien juif, devenu romain), Suétone (qui est appelé par son cognomen Tranquillus, et déjà porté sur les ragots), etc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Les_Mystères_romains_(série_littéraire)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Myst%C3%A8res_romains_(s%C3%A9rie_litt%C3%A9raire)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Faits historiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'auteur de cette série reprend beaucoup d'événements de l'époque comme l'éruption du Vésuve en août 79, l'incendie de Rome pendant l'hiver 90, ou encore l'inauguration du Colisée (amphithéâtre Flavien). Le récit, ses péripéties, descriptions et dialogues sont souvent des occasions pour Caroline Lawrence de faire quelques remarques sur la civilisation romaine : très variées, celles-ci concernent les modes vestimentaires, la gastronomie, l'ambiance des rues, les expressions en vogue, les rapports codifiés au sein de la société, les mythes gréco-romains...
 </t>
         </is>
       </c>
